--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -637,27 +637,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 47259-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 47259-2020.xlsx", "A 47259-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 47259-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 47259-2020.png", "A 47259-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 47259-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 47259-2020.docx", "A 47259-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 47259-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 47259-2020.docx", "A 47259-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 47259-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 47259-2020.docx", "A 47259-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 47259-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 47259-2020.docx", "A 47259-2020")</f>
         <v/>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -732,27 +732,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 67757-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 67757-2020.xlsx", "A 67757-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 67757-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 67757-2020.png", "A 67757-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 67757-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 67757-2020.docx", "A 67757-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 67757-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 67757-2020.docx", "A 67757-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 67757-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 67757-2020.docx", "A 67757-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 67757-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 67757-2020.docx", "A 67757-2020")</f>
         <v/>
       </c>
     </row>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -824,27 +824,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 22584-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 22584-2021.xlsx", "A 22584-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 22584-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 22584-2021.png", "A 22584-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 22584-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 22584-2021.docx", "A 22584-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 22584-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 22584-2021.docx", "A 22584-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 22584-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 22584-2021.docx", "A 22584-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 22584-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 22584-2021.docx", "A 22584-2021")</f>
         <v/>
       </c>
     </row>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,31 +914,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 31970-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 31970-2019.xlsx", "A 31970-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 31970-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 31970-2019.png", "A 31970-2019")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/knärot/A 31970-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/knärot/A 31970-2019.png", "A 31970-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 31970-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 31970-2019.docx", "A 31970-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 31970-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 31970-2019.docx", "A 31970-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 31970-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 31970-2019.docx", "A 31970-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 31970-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 31970-2019.docx", "A 31970-2019")</f>
         <v/>
       </c>
     </row>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,27 +1008,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 22578-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 22578-2021.xlsx", "A 22578-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 22578-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 22578-2021.png", "A 22578-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 22578-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 22578-2021.docx", "A 22578-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 22578-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 22578-2021.docx", "A 22578-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 22578-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 22578-2021.docx", "A 22578-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 22578-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 22578-2021.docx", "A 22578-2021")</f>
         <v/>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,27 +1096,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 38001-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 38001-2019.xlsx", "A 38001-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 38001-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 38001-2019.png", "A 38001-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 38001-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 38001-2019.docx", "A 38001-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 38001-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 38001-2019.docx", "A 38001-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 38001-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 38001-2019.docx", "A 38001-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 38001-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 38001-2019.docx", "A 38001-2019")</f>
         <v/>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,27 +1184,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 41233-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 41233-2020.xlsx", "A 41233-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 41233-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 41233-2020.png", "A 41233-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 41233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 41233-2020.docx", "A 41233-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 41233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 41233-2020.docx", "A 41233-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 41233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 41233-2020.docx", "A 41233-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 41233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 41233-2020.docx", "A 41233-2020")</f>
         <v/>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,27 +1272,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 17902-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 17902-2021.xlsx", "A 17902-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 17902-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 17902-2021.png", "A 17902-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 17902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 17902-2021.docx", "A 17902-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 17902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 17902-2021.docx", "A 17902-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 17902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 17902-2021.docx", "A 17902-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 17902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 17902-2021.docx", "A 17902-2021")</f>
         <v/>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 49356-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 49356-2021.xlsx", "A 49356-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 49356-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 49356-2021.png", "A 49356-2021")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/knärot/A 49356-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/knärot/A 49356-2021.png", "A 49356-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 49356-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 49356-2021.docx", "A 49356-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 49356-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 49356-2021.docx", "A 49356-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 49356-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 49356-2021.docx", "A 49356-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 49356-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 49356-2021.docx", "A 49356-2021")</f>
         <v/>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,27 +1451,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 57107-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 57107-2020.xlsx", "A 57107-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 57107-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 57107-2020.png", "A 57107-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 57107-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 57107-2020.docx", "A 57107-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 57107-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 57107-2020.docx", "A 57107-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 57107-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 57107-2020.docx", "A 57107-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 57107-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 57107-2020.docx", "A 57107-2020")</f>
         <v/>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,27 +1537,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 34860-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 34860-2019.xlsx", "A 34860-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 34860-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 34860-2019.png", "A 34860-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 34860-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 34860-2019.docx", "A 34860-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 34860-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 34860-2019.docx", "A 34860-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 34860-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 34860-2019.docx", "A 34860-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 34860-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 34860-2019.docx", "A 34860-2019")</f>
         <v/>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,27 +1623,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 2674-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 2674-2021.xlsx", "A 2674-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 2674-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 2674-2021.png", "A 2674-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 2674-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 2674-2021.docx", "A 2674-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 2674-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 2674-2021.docx", "A 2674-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 2674-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 2674-2021.docx", "A 2674-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 2674-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 2674-2021.docx", "A 2674-2021")</f>
         <v/>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,27 +1709,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 2680-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 2680-2021.xlsx", "A 2680-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 2680-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 2680-2021.png", "A 2680-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 2680-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 2680-2021.docx", "A 2680-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 2680-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 2680-2021.docx", "A 2680-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 2680-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 2680-2021.docx", "A 2680-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 2680-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 2680-2021.docx", "A 2680-2021")</f>
         <v/>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,27 +1795,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 33273-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 33273-2021.xlsx", "A 33273-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 33273-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 33273-2021.png", "A 33273-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 33273-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 33273-2021.docx", "A 33273-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 33273-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 33273-2021.docx", "A 33273-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 33273-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 33273-2021.docx", "A 33273-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 33273-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 33273-2021.docx", "A 33273-2021")</f>
         <v/>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,27 +1881,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 4173-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 4173-2022.xlsx", "A 4173-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 4173-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 4173-2022.png", "A 4173-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 4173-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 4173-2022.docx", "A 4173-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 4173-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 4173-2022.docx", "A 4173-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 4173-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 4173-2022.docx", "A 4173-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 4173-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 4173-2022.docx", "A 4173-2022")</f>
         <v/>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1966,27 +1966,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 984-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 984-2019.xlsx", "A 984-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 984-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 984-2019.png", "A 984-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 984-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 984-2019.docx", "A 984-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 984-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 984-2019.docx", "A 984-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 984-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 984-2019.docx", "A 984-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 984-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 984-2019.docx", "A 984-2019")</f>
         <v/>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 7008-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 7008-2019.xlsx", "A 7008-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 7008-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 7008-2019.png", "A 7008-2019")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/knärot/A 7008-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/knärot/A 7008-2019.png", "A 7008-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 7008-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 7008-2019.docx", "A 7008-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 7008-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 7008-2019.docx", "A 7008-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 7008-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 7008-2019.docx", "A 7008-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 7008-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 7008-2019.docx", "A 7008-2019")</f>
         <v/>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2140,27 +2140,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 11845-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 11845-2019.xlsx", "A 11845-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 11845-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 11845-2019.png", "A 11845-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 11845-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 11845-2019.docx", "A 11845-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 11845-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 11845-2019.docx", "A 11845-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 11845-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 11845-2019.docx", "A 11845-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 11845-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 11845-2019.docx", "A 11845-2019")</f>
         <v/>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2225,27 +2225,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 16778-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 16778-2019.xlsx", "A 16778-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 16778-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 16778-2019.png", "A 16778-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 16778-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 16778-2019.docx", "A 16778-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 16778-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 16778-2019.docx", "A 16778-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 16778-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 16778-2019.docx", "A 16778-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 16778-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 16778-2019.docx", "A 16778-2019")</f>
         <v/>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2310,27 +2310,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 60204-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 60204-2019.xlsx", "A 60204-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 60204-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 60204-2019.png", "A 60204-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 60204-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 60204-2019.docx", "A 60204-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 60204-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 60204-2019.docx", "A 60204-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 60204-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 60204-2019.docx", "A 60204-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 60204-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 60204-2019.docx", "A 60204-2019")</f>
         <v/>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2395,27 +2395,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 12800-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 12800-2020.xlsx", "A 12800-2020")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 12800-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 12800-2020.png", "A 12800-2020")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 12800-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 12800-2020.docx", "A 12800-2020")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 12800-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 12800-2020.docx", "A 12800-2020")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 12800-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 12800-2020.docx", "A 12800-2020")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 12800-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 12800-2020.docx", "A 12800-2020")</f>
         <v/>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2480,27 +2480,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 30048-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 30048-2020.xlsx", "A 30048-2020")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 30048-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 30048-2020.png", "A 30048-2020")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 30048-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 30048-2020.docx", "A 30048-2020")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 30048-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 30048-2020.docx", "A 30048-2020")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 30048-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 30048-2020.docx", "A 30048-2020")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 30048-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 30048-2020.docx", "A 30048-2020")</f>
         <v/>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2565,27 +2565,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 41211-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 41211-2020.xlsx", "A 41211-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 41211-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 41211-2020.png", "A 41211-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 41211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 41211-2020.docx", "A 41211-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 41211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 41211-2020.docx", "A 41211-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 41211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 41211-2020.docx", "A 41211-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 41211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 41211-2020.docx", "A 41211-2020")</f>
         <v/>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2655,27 +2655,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 59982-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 59982-2020.xlsx", "A 59982-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 59982-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 59982-2020.png", "A 59982-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 59982-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 59982-2020.docx", "A 59982-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 59982-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 59982-2020.docx", "A 59982-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 59982-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 59982-2020.docx", "A 59982-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 59982-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 59982-2020.docx", "A 59982-2020")</f>
         <v/>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2740,27 +2740,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 66393-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 66393-2020.xlsx", "A 66393-2020")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 66393-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 66393-2020.png", "A 66393-2020")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 66393-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 66393-2020.docx", "A 66393-2020")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 66393-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 66393-2020.docx", "A 66393-2020")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 66393-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 66393-2020.docx", "A 66393-2020")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 66393-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 66393-2020.docx", "A 66393-2020")</f>
         <v/>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2825,27 +2825,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 7778-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 7778-2021.xlsx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 7778-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 7778-2021.png", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 7778-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 7778-2021.docx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 7778-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 7778-2021.docx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 7778-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 7778-2021.docx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 7778-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 7778-2021.docx", "A 7778-2021")</f>
         <v/>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2910,31 +2910,31 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 9947-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 9947-2021.xlsx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 9947-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 9947-2021.png", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="U28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/knärot/A 9947-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/knärot/A 9947-2021.png", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 9947-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 9947-2021.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 9947-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 9947-2021.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 9947-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 9947-2021.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 9947-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 9947-2021.docx", "A 9947-2021")</f>
         <v/>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2999,27 +2999,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 17804-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 17804-2021.xlsx", "A 17804-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 17804-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 17804-2021.png", "A 17804-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 17804-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 17804-2021.docx", "A 17804-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 17804-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 17804-2021.docx", "A 17804-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 17804-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 17804-2021.docx", "A 17804-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 17804-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 17804-2021.docx", "A 17804-2021")</f>
         <v/>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3084,27 +3084,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 1013-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/artfynd/A 1013-2022.xlsx", "A 1013-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 1013-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/kartor/A 1013-2022.png", "A 1013-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 1013-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 1013-2022.docx", "A 1013-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 1013-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 1013-2022.docx", "A 1013-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 1013-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 1013-2022.docx", "A 1013-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 1013-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 1013-2022.docx", "A 1013-2022")</f>
         <v/>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7393,23 +7393,23 @@
       </c>
       <c r="R105" s="2" t="inlineStr"/>
       <c r="U105">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/knärot/A 57455-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/knärot/A 57455-2019.png", "A 57455-2019")</f>
         <v/>
       </c>
       <c r="V105">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 57455-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 57455-2019.docx", "A 57455-2019")</f>
         <v/>
       </c>
       <c r="W105">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 57455-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 57455-2019.docx", "A 57455-2019")</f>
         <v/>
       </c>
       <c r="X105">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 57455-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 57455-2019.docx", "A 57455-2019")</f>
         <v/>
       </c>
       <c r="Y105">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 57455-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 57455-2019.docx", "A 57455-2019")</f>
         <v/>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13869,23 +13869,23 @@
       </c>
       <c r="R218" s="2" t="inlineStr"/>
       <c r="U218">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/knärot/A 4720-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/knärot/A 4720-2023.png", "A 4720-2023")</f>
         <v/>
       </c>
       <c r="V218">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 4720-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomål/A 4720-2023.docx", "A 4720-2023")</f>
         <v/>
       </c>
       <c r="W218">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 4720-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/klagomålsmail/A 4720-2023.docx", "A 4720-2023")</f>
         <v/>
       </c>
       <c r="X218">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 4720-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsyn/A 4720-2023.docx", "A 4720-2023")</f>
         <v/>
       </c>
       <c r="Y218">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 4720-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STROMSTAD/tillsynsmail/A 4720-2023.docx", "A 4720-2023")</f>
         <v/>
       </c>
     </row>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44182</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44327</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>44139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43658</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44215</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44215</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44377</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44588</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43430</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43521</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43549</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43780</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43893</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44151</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44176</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44242</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44252</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43415</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43426</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43438</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43438</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>43447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43462</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>43471</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>43471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43499</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43506</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>43506</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43595</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43595</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43595</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43724</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43739</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43767</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43782</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43790</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43794</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43797</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43826</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43885</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43902</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43920</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43920</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43920</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43950</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43951</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43955</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43982</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43983</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43992</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44006</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44019</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44071</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44071</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44082</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44082</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44085</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44116</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44124</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44129</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44151</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44168</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44200</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44208</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44229</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44242</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44251</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44256</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44279</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44287</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44298</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44312</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44318</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44435</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44457</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44459</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44462</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44469</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44499</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44510</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44525</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44525</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44526</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44533</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44533</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44533</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44585</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44606</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44651</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44659</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44699</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44701</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44740</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44763</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44829</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44841</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44848</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44851</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44859</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44879</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44886</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44892</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44892</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44892</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44907</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44925</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44957</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44987</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45002</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45002</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45018</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45033</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45033</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>45033</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45061</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45085</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45085</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45114</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
